--- a/xlsx/火箭_intext.xlsx
+++ b/xlsx/火箭_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="510">
   <si>
     <t>火箭</t>
   </si>
@@ -29,7 +29,7 @@
     <t>物质</t>
   </si>
   <si>
-    <t>政策_政策_美國_火箭</t>
+    <t>政策_政策_美国_火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%AE%AD_(%E5%8F%A4%E4%BB%A3)</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2%E5%9B%9B%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>三角洲四號運載火箭</t>
+    <t>三角洲四号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%AE%A1%E7%81%AB%E7%AE%AD%E7%82%AE</t>
@@ -80,9 +80,6 @@
     <t>多管火箭炮</t>
   </si>
   <si>
-    <t>物質</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%AD%E7%9F%A2</t>
   </si>
   <si>
@@ -122,25 +119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%8B%92%C2%B7%E5%87%A1%E5%B0%94%E7%BA%B3</t>
@@ -212,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%85%8B%E7%81%AB%E7%AE%AD%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>固態火箭發動機</t>
+    <t>固态火箭发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%85%8B%E7%81%AB%E7%AE%AD%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>液態火箭發動機</t>
+    <t>液态火箭发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%BB%E5%AD%90%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -230,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E7%82%AE</t>
   </si>
   <si>
-    <t>軌道炮</t>
+    <t>轨道炮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E6%8A%95%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>質量投射器</t>
+    <t>质量投射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E8%BD%BD%E7%81%AB%E7%AE%AD</t>
@@ -260,25 +257,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%A1%9E%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻塞諸塞州</t>
+    <t>麻塞诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%85%8B%E7%87%83%E6%96%99%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>液態燃料火箭</t>
+    <t>液态燃料火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -296,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7</t>
@@ -332,19 +329,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%81%94%E6%9E%97</t>
   </si>
   <si>
-    <t>史達林</t>
+    <t>史达林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%AA%E9%98%B2%E8%A1%9B%E8%BB%8D</t>
   </si>
   <si>
-    <t>威瑪防衛軍</t>
+    <t>威玛防卫军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>德意志國防軍</t>
+    <t>德意志国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%BA%B3%C2%B7%E5%86%AF%C2%B7%E5%B8%83%E5%8A%B3%E6%81%A9</t>
@@ -356,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V2%E7%81%AB%E7%AE%AD</t>
@@ -380,31 +377,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A%E6%9D%BE%E5%88%86%E4%BD%88</t>
   </si>
   <si>
-    <t>泊松分佈</t>
+    <t>泊松分布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E7%8E%87%E5%88%86%E4%BD%88</t>
   </si>
   <si>
-    <t>機率分佈</t>
+    <t>机率分布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%86%85%E6%98%8E%E5%BE%B7</t>
@@ -416,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E7%BA%B9%E9%92%88%E8%A1%8C%E5%8A%A8</t>
@@ -428,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%9F%B3%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>紅石飛彈</t>
+    <t>红石飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E5%BB%96%E5%A4%AB</t>
@@ -440,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%B2%E9%9A%9B%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>洲際飛彈</t>
+    <t>洲际飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/R-7%E5%BD%88%E9%81%93%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>R-7彈道飛彈</t>
+    <t>R-7弹道飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>聯盟號運載火箭</t>
+    <t>联盟号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8</t>
@@ -464,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E5%8F%B7</t>
@@ -476,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%99%9F</t>
   </si>
   <si>
-    <t>聯合號</t>
+    <t>联合号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E5%AD%90%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>質子號運載火箭</t>
+    <t>质子号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%AD%90%E6%98%9F%E8%99%9F</t>
   </si>
   <si>
-    <t>雙子星號</t>
+    <t>双子星号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -506,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F5%E5%8F%B7</t>
@@ -518,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%99%B8%E6%9C%88%E7%90%83</t>
   </si>
   <si>
-    <t>登陸月球</t>
+    <t>登陆月球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>美國太空梭計劃</t>
+    <t>美国太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E8%BF%90%E8%BD%BD%E7%81%AB%E7%AE%AD</t>
@@ -536,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E9%A2%A8%E9%9B%AA%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>暴風雪太空梭計畫</t>
+    <t>暴风雪太空梭计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
@@ -548,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E8%88%AA%E7%A9%BA%E5%B1%80</t>
   </si>
   <si>
-    <t>美國聯邦航空局</t>
+    <t>美国联邦航空局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%A9%9F%E7%AE%AD</t>
   </si>
   <si>
-    <t>神機箭</t>
+    <t>神机箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%86%9B</t>
@@ -578,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>反物質</t>
+    <t>反物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%99%85%E7%89%A9%E8%B4%A8</t>
@@ -596,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>星際氣體</t>
+    <t>星际气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E5%9E%8B</t>
@@ -638,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%AD%E9%A4%98</t>
   </si>
   <si>
-    <t>業餘</t>
+    <t>业馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -710,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
@@ -770,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲太空競賽</t>
+    <t>亚洲太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E7%BA%AA%E5%BD%95%E5%88%97%E8%A1%A8</t>
@@ -812,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%88%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E9%96%8B%E7%99%BC%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>宇宙航空研究開發機構</t>
+    <t>宇宙航空研究开发机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -896,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%BD%B1%E5%83%8F</t>
@@ -992,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>太空天氣</t>
+    <t>太空天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E4%BA%BA%E8%88%AA%E5%A4%A9</t>
@@ -1058,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%AA%E8%A1%8C%E5%B0%8D%E4%BA%BA%E9%AB%94%E7%9A%84%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>太空航行對人體的影響</t>
+    <t>太空航行对人体的影响</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space_adaptation_syndrome</t>
@@ -1100,25 +1097,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%88%9F%E9%A3%9B%E8%88%B9</t>
   </si>
   <si>
-    <t>神舟飛船</t>
+    <t>神舟飞船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
   </si>
   <si>
-    <t>中國太空站</t>
+    <t>中国太空站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>東方計劃</t>
+    <t>东方计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>禮炮計劃</t>
+    <t>礼炮计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%98%9F%E8%AE%A1%E5%88%92</t>
@@ -1130,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%87%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>上升計劃</t>
+    <t>上升计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%AD%90%E5%BA%A7%E8%AE%A1%E5%88%92</t>
@@ -1166,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>太空梭計劃</t>
+    <t>太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E6%A2%AD%E6%A9%9F-%E5%92%8C%E5%B9%B3%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>穿梭機-和平號計劃</t>
+    <t>穿梭机-和平号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%8F%B7%E7%A9%BA%E9%97%B4%E7%AB%99</t>
@@ -1214,21 +1211,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>太空飛機</t>
+    <t>太空飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
   </si>
   <si>
-    <t>機器人太空船</t>
+    <t>机器人太空船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>人造卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
   </si>
   <si>
@@ -1244,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>探測車</t>
+    <t>探测车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Self-replicating_spacecraft</t>
@@ -1322,13 +1316,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>亞軌道太空飛行</t>
+    <t>亚轨道太空飞行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orbital_spaceflight</t>
@@ -1352,13 +1346,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E9%9A%9B%E8%88%AA%E8%A1%8C</t>
   </si>
   <si>
-    <t>行星際航行</t>
+    <t>行星际航行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%86%E6%98%9F%E9%9A%9B%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>恆星際旅行</t>
+    <t>恒星际旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%B3%BB%E9%99%85%E6%97%85%E8%A1%8C</t>
@@ -1394,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%AE%87%E5%AE%99%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>韓國航空宇宙研究院</t>
+    <t>韩国航空宇宙研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -1406,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%AA%E5%A4%A9%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國航天科技集團</t>
+    <t>中国航天科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%88%AA%E5%A4%A9%E7%A7%91%E5%B7%A5%E9%9B%86%E5%9B%A2</t>
@@ -1418,19 +1412,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%BC%89%E4%BA%BA%E8%88%AA%E5%A4%A9%E5%B7%A5%E7%A8%8B%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中國載人航天工程辦公室</t>
+    <t>中国载人航天工程办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國家太空中心 (中華民國)</t>
+    <t>国家太空中心 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%9C%8B%E5%AE%B6%E5%AE%87%E5%AE%99%E9%96%8B%E7%99%BC%E5%B1%80</t>
   </si>
   <si>
-    <t>朝鮮國家宇宙開發局</t>
+    <t>朝鲜国家宇宙开发局</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Lembaga_Penerbangan_dan_Antariksa_Nasional</t>
@@ -1466,19 +1460,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>法國國家太空研究中心</t>
+    <t>法国国家太空研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>德國航空太空中心</t>
+    <t>德国航空太空中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>義大利太空總署</t>
+    <t>义大利太空总署</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/Rymdstyrelsen</t>
@@ -1490,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%88%AA%E5%A4%AA</t>
   </si>
   <si>
-    <t>俄羅斯航太</t>
+    <t>俄罗斯航太</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/%D0%94%D0%B5%D1%80%D0%B6%D0%B0%D0%B2%D0%BD%D0%B5_%D0%BA%D0%BE%D1%81%D0%BC%D1%96%D1%87%D0%BD%D0%B5_%D0%B0%D0%B3%D0%B5%D0%BD%D1%82%D1%81%D1%82%D0%B2%D0%BE_%D0%A3%D0%BA%D1%80%D0%B0%D1%97%D0%BD%D0%B8</t>
@@ -1532,13 +1526,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>印度太空研究組織</t>
+    <t>印度太空研究组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1550,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -2237,10 +2231,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -2266,10 +2260,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -2295,10 +2289,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2324,10 +2318,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2353,10 +2347,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -2382,10 +2376,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -2411,10 +2405,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
       </c>
       <c r="G18" t="n">
         <v>11</v>
@@ -2440,10 +2434,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -2469,10 +2463,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2498,10 +2492,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -2527,10 +2521,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2556,10 +2550,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2585,10 +2579,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -2614,10 +2608,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2643,10 +2637,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2672,10 +2666,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2701,10 +2695,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -2730,10 +2724,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2759,10 +2753,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
         <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2788,10 +2782,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
         <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>61</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -2817,10 +2811,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
         <v>62</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2846,10 +2840,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
         <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>65</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2875,10 +2869,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
         <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2904,10 +2898,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
         <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>69</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2933,10 +2927,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
         <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2962,10 +2956,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
         <v>72</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2991,10 +2985,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
         <v>74</v>
-      </c>
-      <c r="F38" t="s">
-        <v>75</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3020,10 +3014,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
         <v>76</v>
-      </c>
-      <c r="F39" t="s">
-        <v>77</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3049,10 +3043,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
         <v>78</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3078,10 +3072,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" t="s">
         <v>80</v>
-      </c>
-      <c r="F41" t="s">
-        <v>81</v>
       </c>
       <c r="G41" t="n">
         <v>12</v>
@@ -3107,10 +3101,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
         <v>82</v>
-      </c>
-      <c r="F42" t="s">
-        <v>83</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3136,10 +3130,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
         <v>84</v>
-      </c>
-      <c r="F43" t="s">
-        <v>85</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3165,10 +3159,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
         <v>86</v>
-      </c>
-      <c r="F44" t="s">
-        <v>87</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3194,10 +3188,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
         <v>88</v>
-      </c>
-      <c r="F45" t="s">
-        <v>89</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3223,10 +3217,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" t="s">
         <v>90</v>
-      </c>
-      <c r="F46" t="s">
-        <v>91</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3252,10 +3246,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
         <v>92</v>
-      </c>
-      <c r="F47" t="s">
-        <v>93</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3281,10 +3275,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
         <v>94</v>
-      </c>
-      <c r="F48" t="s">
-        <v>95</v>
       </c>
       <c r="G48" t="n">
         <v>13</v>
@@ -3310,10 +3304,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" t="s">
         <v>96</v>
-      </c>
-      <c r="F49" t="s">
-        <v>97</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3339,10 +3333,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
         <v>98</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3368,10 +3362,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
         <v>100</v>
-      </c>
-      <c r="F51" t="s">
-        <v>101</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3397,10 +3391,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" t="s">
         <v>102</v>
-      </c>
-      <c r="F52" t="s">
-        <v>103</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3426,10 +3420,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
         <v>104</v>
-      </c>
-      <c r="F53" t="s">
-        <v>105</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3455,10 +3449,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" t="s">
         <v>106</v>
-      </c>
-      <c r="F54" t="s">
-        <v>107</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3484,10 +3478,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
         <v>108</v>
-      </c>
-      <c r="F55" t="s">
-        <v>109</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3513,10 +3507,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
         <v>110</v>
-      </c>
-      <c r="F56" t="s">
-        <v>111</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3542,10 +3536,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" t="s">
         <v>112</v>
-      </c>
-      <c r="F57" t="s">
-        <v>113</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3571,10 +3565,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
         <v>114</v>
-      </c>
-      <c r="F58" t="s">
-        <v>115</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
@@ -3600,10 +3594,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" t="s">
         <v>116</v>
-      </c>
-      <c r="F59" t="s">
-        <v>117</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3629,10 +3623,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" t="s">
         <v>118</v>
-      </c>
-      <c r="F60" t="s">
-        <v>119</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3658,10 +3652,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" t="s">
         <v>120</v>
-      </c>
-      <c r="F61" t="s">
-        <v>121</v>
       </c>
       <c r="G61" t="n">
         <v>7</v>
@@ -3687,10 +3681,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" t="s">
         <v>122</v>
-      </c>
-      <c r="F62" t="s">
-        <v>123</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3716,10 +3710,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" t="s">
         <v>124</v>
-      </c>
-      <c r="F63" t="s">
-        <v>125</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3745,10 +3739,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" t="s">
         <v>126</v>
-      </c>
-      <c r="F64" t="s">
-        <v>127</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3774,10 +3768,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" t="s">
         <v>128</v>
-      </c>
-      <c r="F65" t="s">
-        <v>129</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3803,10 +3797,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" t="s">
         <v>130</v>
-      </c>
-      <c r="F66" t="s">
-        <v>131</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3832,10 +3826,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" t="s">
         <v>132</v>
-      </c>
-      <c r="F67" t="s">
-        <v>133</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3861,10 +3855,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
         <v>134</v>
-      </c>
-      <c r="F68" t="s">
-        <v>135</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3890,10 +3884,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" t="s">
         <v>136</v>
-      </c>
-      <c r="F69" t="s">
-        <v>137</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3919,10 +3913,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" t="s">
         <v>138</v>
-      </c>
-      <c r="F70" t="s">
-        <v>139</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3948,10 +3942,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
         <v>140</v>
-      </c>
-      <c r="F71" t="s">
-        <v>141</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3977,10 +3971,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" t="s">
         <v>142</v>
-      </c>
-      <c r="F72" t="s">
-        <v>143</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4006,10 +4000,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" t="s">
         <v>144</v>
-      </c>
-      <c r="F73" t="s">
-        <v>145</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4035,10 +4029,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F74" t="s">
         <v>146</v>
-      </c>
-      <c r="F74" t="s">
-        <v>147</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4064,10 +4058,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
         <v>148</v>
-      </c>
-      <c r="F75" t="s">
-        <v>149</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4093,10 +4087,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" t="s">
         <v>150</v>
-      </c>
-      <c r="F76" t="s">
-        <v>151</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4122,10 +4116,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" t="s">
         <v>152</v>
-      </c>
-      <c r="F77" t="s">
-        <v>153</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4151,10 +4145,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
         <v>154</v>
-      </c>
-      <c r="F78" t="s">
-        <v>155</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4180,10 +4174,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>155</v>
+      </c>
+      <c r="F79" t="s">
         <v>156</v>
-      </c>
-      <c r="F79" t="s">
-        <v>157</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4209,10 +4203,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" t="s">
         <v>158</v>
-      </c>
-      <c r="F80" t="s">
-        <v>159</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -4238,10 +4232,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" t="s">
         <v>160</v>
-      </c>
-      <c r="F81" t="s">
-        <v>161</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4267,10 +4261,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82" t="s">
         <v>162</v>
-      </c>
-      <c r="F82" t="s">
-        <v>163</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4296,10 +4290,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
         <v>164</v>
-      </c>
-      <c r="F83" t="s">
-        <v>165</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4325,10 +4319,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" t="s">
         <v>166</v>
-      </c>
-      <c r="F84" t="s">
-        <v>167</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4354,10 +4348,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>167</v>
+      </c>
+      <c r="F85" t="s">
         <v>168</v>
-      </c>
-      <c r="F85" t="s">
-        <v>169</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4383,10 +4377,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" t="s">
         <v>170</v>
-      </c>
-      <c r="F86" t="s">
-        <v>171</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4412,10 +4406,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" t="s">
         <v>172</v>
-      </c>
-      <c r="F87" t="s">
-        <v>173</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4441,10 +4435,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>173</v>
+      </c>
+      <c r="F88" t="s">
         <v>174</v>
-      </c>
-      <c r="F88" t="s">
-        <v>175</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4470,10 +4464,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>175</v>
+      </c>
+      <c r="F89" t="s">
         <v>176</v>
-      </c>
-      <c r="F89" t="s">
-        <v>177</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4499,10 +4493,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>177</v>
+      </c>
+      <c r="F90" t="s">
         <v>178</v>
-      </c>
-      <c r="F90" t="s">
-        <v>179</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4528,10 +4522,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" t="s">
         <v>180</v>
-      </c>
-      <c r="F91" t="s">
-        <v>181</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4557,10 +4551,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" t="s">
         <v>182</v>
-      </c>
-      <c r="F92" t="s">
-        <v>183</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4586,10 +4580,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" t="s">
         <v>184</v>
-      </c>
-      <c r="F93" t="s">
-        <v>185</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4615,10 +4609,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" t="s">
         <v>186</v>
-      </c>
-      <c r="F94" t="s">
-        <v>187</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4644,10 +4638,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" t="s">
         <v>188</v>
-      </c>
-      <c r="F95" t="s">
-        <v>189</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4673,10 +4667,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" t="s">
         <v>190</v>
-      </c>
-      <c r="F96" t="s">
-        <v>191</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4702,10 +4696,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>191</v>
+      </c>
+      <c r="F97" t="s">
         <v>192</v>
-      </c>
-      <c r="F97" t="s">
-        <v>193</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4731,10 +4725,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" t="s">
         <v>194</v>
-      </c>
-      <c r="F98" t="s">
-        <v>195</v>
       </c>
       <c r="G98" t="n">
         <v>17</v>
@@ -4760,10 +4754,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" t="s">
         <v>196</v>
-      </c>
-      <c r="F99" t="s">
-        <v>197</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -4789,10 +4783,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" t="s">
         <v>198</v>
-      </c>
-      <c r="F100" t="s">
-        <v>199</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4818,10 +4812,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>199</v>
+      </c>
+      <c r="F101" t="s">
         <v>200</v>
-      </c>
-      <c r="F101" t="s">
-        <v>201</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4847,10 +4841,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>201</v>
+      </c>
+      <c r="F102" t="s">
         <v>202</v>
-      </c>
-      <c r="F102" t="s">
-        <v>203</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4876,10 +4870,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>203</v>
+      </c>
+      <c r="F103" t="s">
         <v>204</v>
-      </c>
-      <c r="F103" t="s">
-        <v>205</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4905,10 +4899,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" t="s">
         <v>206</v>
-      </c>
-      <c r="F104" t="s">
-        <v>207</v>
       </c>
       <c r="G104" t="n">
         <v>7</v>
@@ -4934,10 +4928,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" t="s">
         <v>208</v>
-      </c>
-      <c r="F105" t="s">
-        <v>209</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4963,10 +4957,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>209</v>
+      </c>
+      <c r="F106" t="s">
         <v>210</v>
-      </c>
-      <c r="F106" t="s">
-        <v>211</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4992,10 +4986,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>211</v>
+      </c>
+      <c r="F107" t="s">
         <v>212</v>
-      </c>
-      <c r="F107" t="s">
-        <v>213</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5021,10 +5015,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>213</v>
+      </c>
+      <c r="F108" t="s">
         <v>214</v>
-      </c>
-      <c r="F108" t="s">
-        <v>215</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5050,10 +5044,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>215</v>
+      </c>
+      <c r="F109" t="s">
         <v>216</v>
-      </c>
-      <c r="F109" t="s">
-        <v>217</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -5079,10 +5073,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>217</v>
+      </c>
+      <c r="F110" t="s">
         <v>218</v>
-      </c>
-      <c r="F110" t="s">
-        <v>219</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5108,10 +5102,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>219</v>
+      </c>
+      <c r="F111" t="s">
         <v>220</v>
-      </c>
-      <c r="F111" t="s">
-        <v>221</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5137,10 +5131,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>221</v>
+      </c>
+      <c r="F112" t="s">
         <v>222</v>
-      </c>
-      <c r="F112" t="s">
-        <v>223</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -5166,10 +5160,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>223</v>
+      </c>
+      <c r="F113" t="s">
         <v>224</v>
-      </c>
-      <c r="F113" t="s">
-        <v>225</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5195,10 +5189,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>225</v>
+      </c>
+      <c r="F114" t="s">
         <v>226</v>
-      </c>
-      <c r="F114" t="s">
-        <v>227</v>
       </c>
       <c r="G114" t="n">
         <v>6</v>
@@ -5224,10 +5218,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>227</v>
+      </c>
+      <c r="F115" t="s">
         <v>228</v>
-      </c>
-      <c r="F115" t="s">
-        <v>229</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5253,10 +5247,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>229</v>
+      </c>
+      <c r="F116" t="s">
         <v>230</v>
-      </c>
-      <c r="F116" t="s">
-        <v>231</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5282,10 +5276,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" t="s">
         <v>232</v>
-      </c>
-      <c r="F117" t="s">
-        <v>233</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5311,10 +5305,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>233</v>
+      </c>
+      <c r="F118" t="s">
         <v>234</v>
-      </c>
-      <c r="F118" t="s">
-        <v>235</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5340,10 +5334,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>235</v>
+      </c>
+      <c r="F119" t="s">
         <v>236</v>
-      </c>
-      <c r="F119" t="s">
-        <v>237</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5369,10 +5363,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>237</v>
+      </c>
+      <c r="F120" t="s">
         <v>238</v>
-      </c>
-      <c r="F120" t="s">
-        <v>239</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5398,10 +5392,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>239</v>
+      </c>
+      <c r="F121" t="s">
         <v>240</v>
-      </c>
-      <c r="F121" t="s">
-        <v>241</v>
       </c>
       <c r="G121" t="n">
         <v>9</v>
@@ -5427,10 +5421,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>241</v>
+      </c>
+      <c r="F122" t="s">
         <v>242</v>
-      </c>
-      <c r="F122" t="s">
-        <v>243</v>
       </c>
       <c r="G122" t="n">
         <v>35</v>
@@ -5456,10 +5450,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>243</v>
+      </c>
+      <c r="F123" t="s">
         <v>244</v>
-      </c>
-      <c r="F123" t="s">
-        <v>245</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5485,10 +5479,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>245</v>
+      </c>
+      <c r="F124" t="s">
         <v>246</v>
-      </c>
-      <c r="F124" t="s">
-        <v>247</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5514,10 +5508,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>247</v>
+      </c>
+      <c r="F125" t="s">
         <v>248</v>
-      </c>
-      <c r="F125" t="s">
-        <v>249</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5543,10 +5537,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>249</v>
+      </c>
+      <c r="F126" t="s">
         <v>250</v>
-      </c>
-      <c r="F126" t="s">
-        <v>251</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5572,10 +5566,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>251</v>
+      </c>
+      <c r="F127" t="s">
         <v>252</v>
-      </c>
-      <c r="F127" t="s">
-        <v>253</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5601,10 +5595,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>253</v>
+      </c>
+      <c r="F128" t="s">
         <v>254</v>
-      </c>
-      <c r="F128" t="s">
-        <v>255</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5630,10 +5624,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129" t="s">
         <v>256</v>
-      </c>
-      <c r="F129" t="s">
-        <v>257</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5659,10 +5653,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>257</v>
+      </c>
+      <c r="F130" t="s">
         <v>258</v>
-      </c>
-      <c r="F130" t="s">
-        <v>259</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5688,10 +5682,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>259</v>
+      </c>
+      <c r="F131" t="s">
         <v>260</v>
-      </c>
-      <c r="F131" t="s">
-        <v>261</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5717,10 +5711,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>261</v>
+      </c>
+      <c r="F132" t="s">
         <v>262</v>
-      </c>
-      <c r="F132" t="s">
-        <v>263</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5746,10 +5740,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>263</v>
+      </c>
+      <c r="F133" t="s">
         <v>264</v>
-      </c>
-      <c r="F133" t="s">
-        <v>265</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5775,10 +5769,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>265</v>
+      </c>
+      <c r="F134" t="s">
         <v>266</v>
-      </c>
-      <c r="F134" t="s">
-        <v>267</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5804,10 +5798,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>267</v>
+      </c>
+      <c r="F135" t="s">
         <v>268</v>
-      </c>
-      <c r="F135" t="s">
-        <v>269</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5833,10 +5827,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>269</v>
+      </c>
+      <c r="F136" t="s">
         <v>270</v>
-      </c>
-      <c r="F136" t="s">
-        <v>271</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5862,10 +5856,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>271</v>
+      </c>
+      <c r="F137" t="s">
         <v>272</v>
-      </c>
-      <c r="F137" t="s">
-        <v>273</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5891,10 +5885,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>273</v>
+      </c>
+      <c r="F138" t="s">
         <v>274</v>
-      </c>
-      <c r="F138" t="s">
-        <v>275</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5920,10 +5914,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>275</v>
+      </c>
+      <c r="F139" t="s">
         <v>276</v>
-      </c>
-      <c r="F139" t="s">
-        <v>277</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5949,10 +5943,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>277</v>
+      </c>
+      <c r="F140" t="s">
         <v>278</v>
-      </c>
-      <c r="F140" t="s">
-        <v>279</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5978,10 +5972,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" t="s">
         <v>280</v>
-      </c>
-      <c r="F141" t="s">
-        <v>281</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6007,10 +6001,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>281</v>
+      </c>
+      <c r="F142" t="s">
         <v>282</v>
-      </c>
-      <c r="F142" t="s">
-        <v>283</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6036,10 +6030,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>283</v>
+      </c>
+      <c r="F143" t="s">
         <v>284</v>
-      </c>
-      <c r="F143" t="s">
-        <v>285</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6065,10 +6059,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>285</v>
+      </c>
+      <c r="F144" t="s">
         <v>286</v>
-      </c>
-      <c r="F144" t="s">
-        <v>287</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6094,10 +6088,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>287</v>
+      </c>
+      <c r="F145" t="s">
         <v>288</v>
-      </c>
-      <c r="F145" t="s">
-        <v>289</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6123,10 +6117,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>289</v>
+      </c>
+      <c r="F146" t="s">
         <v>290</v>
-      </c>
-      <c r="F146" t="s">
-        <v>291</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6152,10 +6146,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>291</v>
+      </c>
+      <c r="F147" t="s">
         <v>292</v>
-      </c>
-      <c r="F147" t="s">
-        <v>293</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6181,10 +6175,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>293</v>
+      </c>
+      <c r="F148" t="s">
         <v>294</v>
-      </c>
-      <c r="F148" t="s">
-        <v>295</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6210,10 +6204,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>295</v>
+      </c>
+      <c r="F149" t="s">
         <v>296</v>
-      </c>
-      <c r="F149" t="s">
-        <v>297</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6239,10 +6233,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>297</v>
+      </c>
+      <c r="F150" t="s">
         <v>298</v>
-      </c>
-      <c r="F150" t="s">
-        <v>299</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6268,10 +6262,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>299</v>
+      </c>
+      <c r="F151" t="s">
         <v>300</v>
-      </c>
-      <c r="F151" t="s">
-        <v>301</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6297,10 +6291,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>301</v>
+      </c>
+      <c r="F152" t="s">
         <v>302</v>
-      </c>
-      <c r="F152" t="s">
-        <v>303</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6326,10 +6320,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>303</v>
+      </c>
+      <c r="F153" t="s">
         <v>304</v>
-      </c>
-      <c r="F153" t="s">
-        <v>305</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6355,10 +6349,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>305</v>
+      </c>
+      <c r="F154" t="s">
         <v>306</v>
-      </c>
-      <c r="F154" t="s">
-        <v>307</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6384,10 +6378,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>307</v>
+      </c>
+      <c r="F155" t="s">
         <v>308</v>
-      </c>
-      <c r="F155" t="s">
-        <v>309</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6413,10 +6407,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>309</v>
+      </c>
+      <c r="F156" t="s">
         <v>310</v>
-      </c>
-      <c r="F156" t="s">
-        <v>311</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6442,10 +6436,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>311</v>
+      </c>
+      <c r="F157" t="s">
         <v>312</v>
-      </c>
-      <c r="F157" t="s">
-        <v>313</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6471,10 +6465,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>313</v>
+      </c>
+      <c r="F158" t="s">
         <v>314</v>
-      </c>
-      <c r="F158" t="s">
-        <v>315</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6500,10 +6494,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>315</v>
+      </c>
+      <c r="F159" t="s">
         <v>316</v>
-      </c>
-      <c r="F159" t="s">
-        <v>317</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6529,10 +6523,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>317</v>
+      </c>
+      <c r="F160" t="s">
         <v>318</v>
-      </c>
-      <c r="F160" t="s">
-        <v>319</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6558,10 +6552,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>319</v>
+      </c>
+      <c r="F161" t="s">
         <v>320</v>
-      </c>
-      <c r="F161" t="s">
-        <v>321</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6587,10 +6581,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>321</v>
+      </c>
+      <c r="F162" t="s">
         <v>322</v>
-      </c>
-      <c r="F162" t="s">
-        <v>323</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6616,10 +6610,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>323</v>
+      </c>
+      <c r="F163" t="s">
         <v>324</v>
-      </c>
-      <c r="F163" t="s">
-        <v>325</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6645,10 +6639,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>325</v>
+      </c>
+      <c r="F164" t="s">
         <v>326</v>
-      </c>
-      <c r="F164" t="s">
-        <v>327</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -6674,10 +6668,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>327</v>
+      </c>
+      <c r="F165" t="s">
         <v>328</v>
-      </c>
-      <c r="F165" t="s">
-        <v>329</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6703,10 +6697,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>329</v>
+      </c>
+      <c r="F166" t="s">
         <v>330</v>
-      </c>
-      <c r="F166" t="s">
-        <v>331</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6732,10 +6726,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>331</v>
+      </c>
+      <c r="F167" t="s">
         <v>332</v>
-      </c>
-      <c r="F167" t="s">
-        <v>333</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6761,10 +6755,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>333</v>
+      </c>
+      <c r="F168" t="s">
         <v>334</v>
-      </c>
-      <c r="F168" t="s">
-        <v>335</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6790,10 +6784,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>335</v>
+      </c>
+      <c r="F169" t="s">
         <v>336</v>
-      </c>
-      <c r="F169" t="s">
-        <v>337</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6819,10 +6813,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>337</v>
+      </c>
+      <c r="F170" t="s">
         <v>338</v>
-      </c>
-      <c r="F170" t="s">
-        <v>339</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6848,10 +6842,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>339</v>
+      </c>
+      <c r="F171" t="s">
         <v>340</v>
-      </c>
-      <c r="F171" t="s">
-        <v>341</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6877,10 +6871,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>341</v>
+      </c>
+      <c r="F172" t="s">
         <v>342</v>
-      </c>
-      <c r="F172" t="s">
-        <v>343</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6906,10 +6900,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>343</v>
+      </c>
+      <c r="F173" t="s">
         <v>344</v>
-      </c>
-      <c r="F173" t="s">
-        <v>345</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6935,10 +6929,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>345</v>
+      </c>
+      <c r="F174" t="s">
         <v>346</v>
-      </c>
-      <c r="F174" t="s">
-        <v>347</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6964,10 +6958,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>347</v>
+      </c>
+      <c r="F175" t="s">
         <v>348</v>
-      </c>
-      <c r="F175" t="s">
-        <v>349</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6993,10 +6987,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>349</v>
+      </c>
+      <c r="F176" t="s">
         <v>350</v>
-      </c>
-      <c r="F176" t="s">
-        <v>351</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7022,10 +7016,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>351</v>
+      </c>
+      <c r="F177" t="s">
         <v>352</v>
-      </c>
-      <c r="F177" t="s">
-        <v>353</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7051,10 +7045,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>353</v>
+      </c>
+      <c r="F178" t="s">
         <v>354</v>
-      </c>
-      <c r="F178" t="s">
-        <v>355</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7080,10 +7074,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>355</v>
+      </c>
+      <c r="F179" t="s">
         <v>356</v>
-      </c>
-      <c r="F179" t="s">
-        <v>357</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7109,10 +7103,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>357</v>
+      </c>
+      <c r="F180" t="s">
         <v>358</v>
-      </c>
-      <c r="F180" t="s">
-        <v>359</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7138,10 +7132,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>359</v>
+      </c>
+      <c r="F181" t="s">
         <v>360</v>
-      </c>
-      <c r="F181" t="s">
-        <v>361</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7167,10 +7161,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>361</v>
+      </c>
+      <c r="F182" t="s">
         <v>362</v>
-      </c>
-      <c r="F182" t="s">
-        <v>363</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7196,10 +7190,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>363</v>
+      </c>
+      <c r="F183" t="s">
         <v>364</v>
-      </c>
-      <c r="F183" t="s">
-        <v>365</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7225,10 +7219,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>365</v>
+      </c>
+      <c r="F184" t="s">
         <v>366</v>
-      </c>
-      <c r="F184" t="s">
-        <v>367</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7254,10 +7248,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>367</v>
+      </c>
+      <c r="F185" t="s">
         <v>368</v>
-      </c>
-      <c r="F185" t="s">
-        <v>369</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7283,10 +7277,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>369</v>
+      </c>
+      <c r="F186" t="s">
         <v>370</v>
-      </c>
-      <c r="F186" t="s">
-        <v>371</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7312,10 +7306,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>371</v>
+      </c>
+      <c r="F187" t="s">
         <v>372</v>
-      </c>
-      <c r="F187" t="s">
-        <v>373</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7341,10 +7335,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>373</v>
+      </c>
+      <c r="F188" t="s">
         <v>374</v>
-      </c>
-      <c r="F188" t="s">
-        <v>375</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7370,10 +7364,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>375</v>
+      </c>
+      <c r="F189" t="s">
         <v>376</v>
-      </c>
-      <c r="F189" t="s">
-        <v>377</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7399,10 +7393,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>377</v>
+      </c>
+      <c r="F190" t="s">
         <v>378</v>
-      </c>
-      <c r="F190" t="s">
-        <v>379</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7428,10 +7422,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>379</v>
+      </c>
+      <c r="F191" t="s">
         <v>380</v>
-      </c>
-      <c r="F191" t="s">
-        <v>381</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7457,10 +7451,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>381</v>
+      </c>
+      <c r="F192" t="s">
         <v>382</v>
-      </c>
-      <c r="F192" t="s">
-        <v>383</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7486,10 +7480,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>383</v>
+      </c>
+      <c r="F193" t="s">
         <v>384</v>
-      </c>
-      <c r="F193" t="s">
-        <v>385</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7515,10 +7509,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>385</v>
+      </c>
+      <c r="F194" t="s">
         <v>386</v>
-      </c>
-      <c r="F194" t="s">
-        <v>387</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7544,10 +7538,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>387</v>
+      </c>
+      <c r="F195" t="s">
         <v>388</v>
-      </c>
-      <c r="F195" t="s">
-        <v>389</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7573,10 +7567,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>389</v>
+      </c>
+      <c r="F196" t="s">
         <v>390</v>
-      </c>
-      <c r="F196" t="s">
-        <v>391</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7602,10 +7596,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>391</v>
+      </c>
+      <c r="F197" t="s">
         <v>392</v>
-      </c>
-      <c r="F197" t="s">
-        <v>393</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7631,10 +7625,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>393</v>
+      </c>
+      <c r="F198" t="s">
         <v>394</v>
-      </c>
-      <c r="F198" t="s">
-        <v>395</v>
       </c>
       <c r="G198" t="n">
         <v>5</v>
@@ -7660,10 +7654,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>395</v>
+      </c>
+      <c r="F199" t="s">
         <v>396</v>
-      </c>
-      <c r="F199" t="s">
-        <v>397</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7689,10 +7683,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>397</v>
+      </c>
+      <c r="F200" t="s">
         <v>398</v>
-      </c>
-      <c r="F200" t="s">
-        <v>399</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7718,10 +7712,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>399</v>
+      </c>
+      <c r="F201" t="s">
         <v>400</v>
-      </c>
-      <c r="F201" t="s">
-        <v>401</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7747,10 +7741,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F202" t="s">
-        <v>403</v>
+        <v>230</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7776,10 +7770,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F203" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7805,10 +7799,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F204" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7834,10 +7828,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F205" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7863,10 +7857,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F206" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7892,10 +7886,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F207" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7921,10 +7915,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F208" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7950,10 +7944,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F209" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7979,10 +7973,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F210" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8008,10 +8002,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F211" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8037,10 +8031,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F212" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8066,10 +8060,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F213" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8095,10 +8089,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F214" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8124,10 +8118,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F215" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8153,10 +8147,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F216" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8182,10 +8176,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F217" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8211,10 +8205,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -8240,10 +8234,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F219" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8269,10 +8263,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F220" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8298,10 +8292,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F221" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8327,10 +8321,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F222" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8356,10 +8350,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F223" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8385,10 +8379,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8414,10 +8408,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8443,10 +8437,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F226" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8472,10 +8466,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8501,10 +8495,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F228" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8530,10 +8524,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8559,10 +8553,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8588,10 +8582,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F231" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8617,10 +8611,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8646,10 +8640,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F233" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8675,10 +8669,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8704,10 +8698,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F235" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8733,10 +8727,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8762,10 +8756,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8791,10 +8785,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F238" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8820,10 +8814,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F239" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8849,10 +8843,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F240" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8878,10 +8872,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F241" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8907,10 +8901,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F242" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8936,10 +8930,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F243" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8965,10 +8959,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F244" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8994,10 +8988,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F245" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9023,10 +9017,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F246" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9052,10 +9046,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F247" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9081,10 +9075,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F248" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9110,10 +9104,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F249" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9139,10 +9133,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F250" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9168,10 +9162,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F251" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9197,10 +9191,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F252" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9226,10 +9220,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F253" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9255,10 +9249,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F254" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -9284,10 +9278,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F255" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9313,10 +9307,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F256" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>

--- a/xlsx/火箭_intext.xlsx
+++ b/xlsx/火箭_intext.xlsx
@@ -29,7 +29,7 @@
     <t>物质</t>
   </si>
   <si>
-    <t>政策_政策_美國_火箭</t>
+    <t>体育运动_体育运动_伊朗_火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%AE%AD_(%E5%8F%A4%E4%BB%A3)</t>
